--- a/excel_file.xlsx
+++ b/excel_file.xlsx
@@ -1,108 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="570" windowWidth="27495" windowHeight="11700"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Категория блюд</t>
-  </si>
-  <si>
-    <t>Ссылка на категорию</t>
-  </si>
-  <si>
-    <t>Рецепты первых блюд</t>
-  </si>
-  <si>
-    <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
-  </si>
-  <si>
-    <t>Рецепты вторых блюд</t>
-  </si>
-  <si>
-    <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
-  </si>
-  <si>
-    <t>Рецепты заготовок</t>
-  </si>
-  <si>
-    <t>https://www.russianfood.com//recipes/bytype/?fid=8</t>
-  </si>
-  <si>
-    <t>Рецепты закусок</t>
-  </si>
-  <si>
-    <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
-  </si>
-  <si>
-    <t>Рецепты изделий из теста</t>
-  </si>
-  <si>
-    <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
-  </si>
-  <si>
-    <t>Рецепты маринада</t>
-  </si>
-  <si>
-    <t>https://www.russianfood.com//recipes/bytype/?fid=1535</t>
-  </si>
-  <si>
-    <t>Рецепты напитков</t>
-  </si>
-  <si>
-    <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
-  </si>
-  <si>
-    <t>Рецепты приправ</t>
-  </si>
-  <si>
-    <t>https://www.russianfood.com//recipes/bytype/?fid=69</t>
-  </si>
-  <si>
-    <t>Рецепты сладостей</t>
-  </si>
-  <si>
-    <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
-  </si>
-  <si>
-    <t>Рецепты соусов</t>
-  </si>
-  <si>
-    <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,41 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,136 +420,614 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Категория блюд</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ссылка на категорию</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Перечень блюд</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Борщи</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ботвинья</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Бульоны</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Гаспачо</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Капустняк</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Кулеш</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Лагман</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Минестроне</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Мисо</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Окрошка</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Рассольник</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Свекольник</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Сладкие супы</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Солянка</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Супы</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Уха</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Харчо</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Хаш</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Шурпа</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Щи</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=8</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1535</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Рецепты приправ</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=69</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/excel_file.xlsx
+++ b/excel_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -866,167 +866,5387 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Азу</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Рецепты заготовок</t>
+          <t>Рецепты вторых блюд</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.russianfood.com//recipes/bytype/?fid=8</t>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Бефстроганов</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Рецепты закусок</t>
+          <t>Рецепты вторых блюд</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Бешбармак</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Рецепты изделий из теста</t>
+          <t>Рецепты вторых блюд</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Бигус</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Рецепты маринада</t>
+          <t>Рецепты вторых блюд</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.russianfood.com//recipes/bytype/?fid=1535</t>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Биточки</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Рецепты напитков</t>
+          <t>Рецепты вторых блюд</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Бифштекс</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Рецепты приправ</t>
+          <t>Рецепты вторых блюд</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.russianfood.com//recipes/bytype/?fid=69</t>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Блюда из яиц</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Рецепты сладостей</t>
+          <t>Рецепты вторых блюд</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Бризоль</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Буженина</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Гарниры</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Голубцы</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Гречка по-купечески</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Грибные</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Гуляш</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Долма</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Жаркое</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Запеканки</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Зразы</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Из морепродуктов</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Каши</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Колбаса домашняя</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Колдуны</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Котлеты</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Крокеты</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Купаты</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Лазанья</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Лангет</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Лечо</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Люля-кебаб</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Мамалыга</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Мусака</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Мясные блюда</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Мясо по-французски</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Начинка</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Овощные</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Омлет</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Отбивные</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Паэлья</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Плов</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Полента</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Пудинг</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Рагу</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Рататуй</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Ризотто</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Роллы</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Ромштекс</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Ростбиф</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Рыбные блюда</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Соте</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Стейк</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Суфле</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Тефтели</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Тортилья</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Фалафель</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Фрикадельки</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Фрикасе</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Цыпленок табака</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Чанахи</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Чахохбили</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Шакшука</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Шашлык</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Шницель</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=3</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Яичница</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=8</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Баклажаны на зиму</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=8</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Грибы на зиму</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=8</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Кабачки на зиму</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=8</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Квашение</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=8</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Консервация</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=8</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Мочение</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=8</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Огурцы на зиму</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=8</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Перец на зиму</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=8</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Помидоры на зиму</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=8</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Салаты на зиму</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=8</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Сушка</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=8</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Чеснок маринованный</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Аджапсандал</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Бабагануш</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Бастурма</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Бургеры</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Бутерброды</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Винегрет</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Горячие закуски</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Гуакамоле</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Жульен</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Закуски из грибов и овощей</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Закуски из мяса и птицы</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Закуски из рыбы и креветок</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Закуски к пиву</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Заливное</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Икра овощная</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Канапе</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Кимчи</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Лечо</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Лобио</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Паштеты</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Салатные заправки</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Салаты</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Сосиски в тесте</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Сэндвичи</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Террин</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Торт печеночный</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Фондю</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Форшмак</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Холодные закуски</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Хумус</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Чипсы</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=6</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Шаурма</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Ачма</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Баурсаки</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Беляши</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Блины и оладьи</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Булочки</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Вареники</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Ватрушки</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Вертута</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Волованы</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Галушки</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Гренки</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Драники</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Клецки</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Коржики</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Круассаны</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Куличи</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Курник</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Кутабы</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Кыстыбый</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Лапша</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Лепешки</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Манник</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Манты</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Ньокки</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Пампушки</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Панкейки</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Паста</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Пельмени</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Пироги</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Пирожки</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Пицца</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Плюшки</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Пончики</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Профитроли</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Пряники</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Пышки</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Равиоли</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Расстегаи</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Рогалики</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Рулет</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Самса</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Слойки</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Сочники</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Сухари</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Сырники</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Такос</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Тарт</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Тарталетки</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Тесто</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Хала</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Ханум</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Хачапури</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Хинкали</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Хлеб</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Чебуреки</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Чиабатта</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Шаньги</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Шарлотка</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Штрудель</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Энчилада</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=5</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Эчпочмак</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1535</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Маринад для грибов</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1535</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Маринад для копчения</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1535</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Маринад для курицы</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1535</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Маринад для мяса</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1535</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Маринад для овощей</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1535</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Маринад для рыбы</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1535</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Маринад на кефире</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1535</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Маринад на пиве</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Айран</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Вина</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Глинтвейн</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Грог</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Какао</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Квас</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Кисель</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Коктейли алкогольные</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Коктейли безалкогольные</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Компоты</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Кофе</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Ликеры</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Лимонад</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Морс</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Мохито</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Наливка</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Напитки безалкогольные</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Напиток</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Настойки</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Простокваша</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Пунш</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Ром</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Самогон</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Сбитень</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Смузи</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Соки</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Чай</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Шипучка</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=4</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Шоколад</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Рецепты приправ</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=69</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Аджика</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Безе</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Бисквит</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Бланманже</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Буше</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Варенье</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Вафли</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Ганаш</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Глазурь</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Гоголь-моголь</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Гранита</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Десерты</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Джем</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Желе десерт</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Зефир</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Кексы</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Клафути</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Коврижка</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Конфеты</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Конфитюр</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Кремы</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Мильфей</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Мороженое</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Муссы</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Нуга</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Парфе</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Пастила</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Пахлава</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Печенье</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Пирожные</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Повидло</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Рахат-лукум</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Семифредо</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Сироп</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Сладкие салаты</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Суфле десерт</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Торты</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Трайфл</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Фондан</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Фруктовые салаты</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Цукаты</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Чак-чак</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Чизкейк</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Щербет</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=7</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Эклеры</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B272" t="inlineStr">
         <is>
           <t>Рецепты соусов</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C272" t="inlineStr">
         <is>
           <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Бешамель</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Кетчуп</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Майонез</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Песто</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Сациви</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Соус айоли</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Соус болоньезе</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Соус голландский</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Соус грибной</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Соус для рыбы</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Соус для салата Цезарь</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Соус сливочный</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Соус сырный</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Соус тартар</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Соус терияки</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Соус томатный</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Соус чесночный</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Соусы и приправы для шашлыка</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Ткемали</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=9</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Хреновина</t>
         </is>
       </c>
     </row>

--- a/excel_file.xlsx
+++ b/excel_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,101 +449,5806 @@
           <t>Ссылка на категорию</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Ингредиенты</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Борщи</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=12</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ботвинья</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=626</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Бульоны</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=10</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Гаспачо</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=890</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Капустняк</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=596</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Кулеш</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1438</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Лагман</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1092</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Минестроне</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1678</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Мисо</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1401</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Окрошка</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=316</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Рассольник</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=347</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Свекольник</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=332</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Сладкие супы</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=95</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Солянка</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=336</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Супы</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Уха</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=54</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Харчо</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=488</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Хаш</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1340</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Шурпа</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=482</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Рецепты первых блюд</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Щи</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=13</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Азу</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=612</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Бефстроганов</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=533</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Бешбармак</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1312</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Бигус</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1660</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Биточки</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=632</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Бифштекс</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=503</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Блюда из яиц</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=97</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Бризоль</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1349</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Буженина</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=535</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Гарниры</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=17</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Голубцы</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=536</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Гречка по-купечески</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1696</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Грибные</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=58</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Гуляш</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=541</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Долма</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=655</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Жаркое</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=563</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Запеканки</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=539</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Зразы</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=538</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Из морепродуктов</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=53</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Каши</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=489</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Колбаса домашняя</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1671</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Колдуны</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1693</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Котлеты</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=504</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Крокеты</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=597</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Купаты</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1652</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Лазанья</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=659</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Лангет</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1383</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Лечо</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=405</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Люля-кебаб</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=564</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Мамалыга</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1279</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Мусака</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1140</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Мясные блюда</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=14</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Мясо по-французски</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=902</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Начинка</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=66</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Овощные</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=15</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Омлет</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=611</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Отбивные</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1451</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Паэлья</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=909</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Плов</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=473</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Полента</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1483</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Пудинг</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=67</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Рагу</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=390</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Рататуй</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=404</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ризотто</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=911</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Роллы</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=685</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ромштекс</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=531</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ростбиф</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=532</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Рыбные блюда</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=16</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Соте</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=406</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Стейк</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=610</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Суфле</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1703</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Тефтели</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=528</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Тортилья</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=910</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Фалафель</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1654</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Фрикадельки</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=704</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Фрикасе</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=700</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Цыпленок табака</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1458</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Чанахи</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1658</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Чахохбили</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=663</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Шакшука</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1679</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Шашлык</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=640</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Шницель</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=526</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Рецепты вторых блюд</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Яичница</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1348</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Баклажаны на зиму</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=707</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Грибы на зиму</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1441</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Кабачки на зиму</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=702</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Квашение</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=50</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Консервация</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=49</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Мочение</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=51</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Огурцы на зиму</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=701</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Перец на зиму</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=708</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Помидоры на зиму</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=706</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Салаты на зиму</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=703</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Сушка</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=52</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Рецепты заготовок</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Чеснок маринованный</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1683</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Аджапсандал</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1680</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Бабагануш</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1721</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Бастурма</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=613</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Бургеры</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=631</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Бутерброды</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=37</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Винегрет</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=689</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Горячие закуски</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=33</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Гуакамоле</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1694</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Жульен</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=537</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Закуски из грибов и овощей</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=75</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Закуски из мяса и птицы</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=60</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Закуски из рыбы и креветок</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=59</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Закуски к пиву</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1614</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Заливное</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1290</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Икра овощная</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=693</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Канапе</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1287</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Кимчи</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1370</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Лечо</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=405</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Лобио</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=670</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Паштеты</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=38</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Салатные заправки</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=36</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Салаты</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=35</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Сосиски в тесте</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1711</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Сэндвичи</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1593</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Террин</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1365</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Торт печеночный</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1285</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Фондю</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1139</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Форшмак</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=705</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Холодные закуски</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=34</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Хумус</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1357</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Чипсы</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1608</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Рецепты закусок</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Шаурма</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1278</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Ачма</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=618</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Баурсаки</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=624</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Беляши</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=614</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Блины и оладьи</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=27</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Булочки</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=31</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Вареники</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=63</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Ватрушки</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=639</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Вертута</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=690</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Волованы</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=697</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Галушки</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=550</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Гренки</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=454</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Драники</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=540</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Клецки</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=551</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Коржики</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=698</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Круассаны</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1307</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Куличи</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=643</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Курник</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1325</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Кутабы</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1675</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Кыстыбый</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1641</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Лапша</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=599</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Лепешки</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=600</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Манник</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1093</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Манты</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1091</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Ньокки</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1396</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Пампушки</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1712</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Панкейки</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1596</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Паста</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=96</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Пельмени</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=64</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Пироги</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=28</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Пирожки</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=29</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Пицца</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=30</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Плюшки</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1700</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Пончики</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=601</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Профитроли</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1345</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Пряники</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Пышки</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1607</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Равиоли</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1612</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Расстегаи</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=604</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Рогалики</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=605</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Рулет</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=65</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Самса</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1138</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Слойки</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=609</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Сочники</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1595</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Сухари</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=89</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Сырники</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=305</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Такос</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1715</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Тарт</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1690</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Тарталетки</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=606</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Тесто</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=32</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Хала</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1674</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Ханум</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1639</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Хачапури</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=667</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Хинкали</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1398</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Хлеб</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=671</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Чебуреки</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=674</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Чиабатта</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1636</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Шаньги</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1691</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Шарлотка</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=472</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Штрудель</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1137</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Энчилада</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1677</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Рецепты изделий из теста</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Эчпочмак</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1609</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Маринад для грибов</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1537</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Маринад для копчения</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1538</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Маринад для курицы</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1544</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Маринад для мяса</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1546</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Маринад для овощей</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1536</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Маринад для рыбы</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1540</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Маринад на кефире</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1549</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Рецепты маринада</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Маринад на пиве</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1545</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Айран</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=615</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Вина</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=24</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Глинтвейн</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=534</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Грог</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1303</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Какао</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=76</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Квас</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=77</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Кисель</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=82</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Коктейли алкогольные</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=23</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Коктейли безалкогольные</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=22</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Компоты</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=19</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Кофе</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=21</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Ликеры</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Лимонад</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=83</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Морс</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1318</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Мохито</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1136</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Наливка</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=692</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Напитки безалкогольные</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=84</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Напиток</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=88</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Настойки</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=26</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Простокваша</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=85</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Пунш</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=602</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Ром</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=55</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Самогон</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=94</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Сбитень</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1335</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Смузи</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=691</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Соки</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=18</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Чай</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Шипучка</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=86</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Рецепты напитков</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Шоколад</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=81</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Рецепты приправ</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Аджика</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=402</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Безе</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=622</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Бисквит</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=623</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Бланманже</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1685</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Буше</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=630</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Варенье</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=91</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Вафли</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=92</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Ганаш</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1716</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Глазурь</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=62</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Гоголь-моголь</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1655</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Гранита</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1727</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Десерты</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=45</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Джем</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1670</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Желе десерт</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=46</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Зефир</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1372</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Кексы</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=42</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Клафути</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1689</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Коврижка</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1399</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Конфеты</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=43</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Конфитюр</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=699</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Кремы</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=44</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Мильфей</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1699</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Мороженое</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=48</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Муссы</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1706</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Нуга</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=603</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Парфе</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1638</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Пастила</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1672</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Пахлава</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=420</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Печенье</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=41</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Пирожные</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=40</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Повидло</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=61</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Рахат-лукум</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1648</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Семифредо</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1676</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Сироп</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=87</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Сладкие салаты</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=93</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Суфле десерт</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1704</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Торты</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=39</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Трайфл</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1688</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Фондан</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1637</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Фруктовые салаты</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=47</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Цукаты</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1668</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Чак-чак</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1397</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Чизкейк</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=413</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Щербет</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1650</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Рецепты сладостей</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Эклеры</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1334</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Бешамель</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=616</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Кетчуп</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1244</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Майонез</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=673</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Песто</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1135</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Сациви</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1350</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Соус айоли</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1723</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Соус болоньезе</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1393</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Соус голландский</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1657</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Соус грибной</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1390</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Соус для рыбы</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1385</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Соус для салата Цезарь</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1684</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Соус сливочный</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1613</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Соус сырный</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1389</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Соус тартар</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1697</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Соус терияки</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1724</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Соус томатный</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1457</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Соус чесночный</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1456</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Соусы и приправы для шашлыка</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=661</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Ткемали</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1134</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Рецепты соусов</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Хреновина</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>https://www.russianfood.com//recipes/bytype/?fid=1629</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
